--- a/saboresdomundo/Documentos/Relatório de atividades.xlsx
+++ b/saboresdomundo/Documentos/Relatório de atividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>ATIVIDADES SABORES DO MUNDO</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Data Inicio</t>
   </si>
   <si>
-    <t>Data Prevista Fim</t>
-  </si>
-  <si>
     <t>A ser Desenvolvido</t>
   </si>
   <si>
@@ -152,13 +149,34 @@
   </si>
   <si>
     <t>CC3516</t>
+  </si>
+  <si>
+    <t>FF2E17</t>
+  </si>
+  <si>
+    <t>Classes de Cores</t>
+  </si>
+  <si>
+    <t>deep-orange darken-1</t>
+  </si>
+  <si>
+    <t>#e64a19 deep-orange darken-2</t>
+  </si>
+  <si>
+    <t>#d84315 deep-orange darken-3</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Data  Fim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +270,14 @@
       <name val="Aharoni"/>
       <charset val="177"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,24 +415,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,13 +427,61 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,112 +773,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="33">
+        <v>43706</v>
+      </c>
+      <c r="E4" s="33">
+        <v>43707</v>
+      </c>
+      <c r="F4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="29">
+        <v>43707</v>
+      </c>
+      <c r="E5" s="29">
+        <v>43717</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
     </row>
@@ -842,120 +926,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -968,85 +1052,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.42578125" style="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1061,13 +1163,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/saboresdomundo/Documentos/Relatório de atividades.xlsx
+++ b/saboresdomundo/Documentos/Relatório de atividades.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SaboresDoMundo\saboresdomundo\Documentos\"/>
@@ -16,7 +16,7 @@
     <sheet name="Tarefas" sheetId="2" r:id="rId2"/>
     <sheet name="Temas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ATIVIDADES SABORES DO MUNDO</t>
   </si>
@@ -170,13 +170,19 @@
   </si>
   <si>
     <t>Data  Fim</t>
+  </si>
+  <si>
+    <t>Nivaldo</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +433,30 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,42 +477,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,10 +780,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
@@ -787,27 +793,27 @@
     <col min="6" max="6" width="26.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -827,27 +833,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+    <row r="4" spans="1:6">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="22">
         <v>43706</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="22">
         <v>43707</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -857,57 +863,72 @@
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="18">
         <v>43707</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="18">
         <v>43717</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43718</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -927,25 +948,25 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -953,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -962,7 +983,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="48">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -970,7 +991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -978,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="48">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -986,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="96">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="84">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="96">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="36">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1058,100 +1079,105 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="37.5">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1164,11 +1190,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/saboresdomundo/Documentos/Relatório de atividades.xlsx
+++ b/saboresdomundo/Documentos/Relatório de atividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -478,17 +478,17 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,12 +1085,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="37.5">
       <c r="A2" s="32" t="s">
@@ -1106,14 +1106,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
@@ -1122,62 +1122,57 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1190,6 +1185,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/saboresdomundo/Documentos/Relatório de atividades.xlsx
+++ b/saboresdomundo/Documentos/Relatório de atividades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SaboresDoMundo\saboresdomundo\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475072D-539D-4821-8709-F92C1E0924D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="4560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ATIVIDADES SABORES DO MUNDO</t>
   </si>
@@ -170,12 +171,18 @@
   </si>
   <si>
     <t>Data  Fim</t>
+  </si>
+  <si>
+    <t>feito - Higor</t>
+  </si>
+  <si>
+    <t>Fazendo - Higor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,6 +434,30 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,42 +478,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,10 +777,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -788,24 +795,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -828,22 +835,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="22">
         <v>43706</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="22">
         <v>43707</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
     </row>
@@ -857,13 +864,13 @@
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="18">
         <v>43707</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="18">
         <v>43717</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -923,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,10 +945,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -960,7 +967,9 @@
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -969,6 +978,9 @@
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -976,6 +988,9 @@
       </c>
       <c r="B5" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.25">
@@ -1051,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1060,40 +1075,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
@@ -1101,57 +1116,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1164,11 +1184,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/saboresdomundo/Documentos/Relatório de atividades.xlsx
+++ b/saboresdomundo/Documentos/Relatório de atividades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SaboresDoMundo\saboresdomundo\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475072D-539D-4821-8709-F92C1E0924D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95419B26-71DF-4CA3-8EC9-33EC59DAF591}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>ATIVIDADES SABORES DO MUNDO</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Fazendo - Higor</t>
+  </si>
+  <si>
+    <t>Higor</t>
+  </si>
+  <si>
+    <t>feito - Nivaldo</t>
   </si>
 </sst>
 </file>
@@ -479,17 +485,17 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,20 +884,74 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43709</v>
+      </c>
+      <c r="E6" s="18">
+        <v>43713</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18">
+        <v>43709</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43713</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="18">
+        <v>43713</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>43730</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1076,9 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1031,6 +1094,9 @@
       </c>
       <c r="B10" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.25">
@@ -1079,12 +1145,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -1100,14 +1166,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
@@ -1116,62 +1182,57 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1184,6 +1245,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
